--- a/target/test-classes/TestResource/adactin_Testdata.xlsx
+++ b/target/test-classes/TestResource/adactin_Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSARUL\eclipse-workspace\AdactinCucumber\src\test\resources\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED02551-A3DA-4C0D-81B2-0DC7FBA46ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA8FB7-E27E-45AA-827A-000ECC304E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
